--- a/Entertainment/Navstevnost_Stredisek.xlsx
+++ b/Entertainment/Navstevnost_Stredisek.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mekynova\Desktop\NÁVŠTĚVNOST\022017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\czechitas73\Documents\ikikata\Entertainment\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC358816-81D8-4C59-B94F-00F6AF5E5984}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aquapark" sheetId="3" r:id="rId1"/>
@@ -21,7 +22,18 @@
     <sheet name="Kluziště" sheetId="9" r:id="rId7"/>
     <sheet name="Celkem" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -184,8 +196,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1504,20 +1516,8 @@
     <xf numFmtId="3" fontId="16" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1527,6 +1527,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1576,9 +1591,6 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -1608,7 +1620,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
@@ -1681,7 +1693,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1876,6 +1887,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F5A0-4901-A3E0-A5032457FED1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1996,6 +2012,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F5A0-4901-A3E0-A5032457FED1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2116,6 +2137,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F5A0-4901-A3E0-A5032457FED1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2236,6 +2262,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F5A0-4901-A3E0-A5032457FED1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2356,6 +2387,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F5A0-4901-A3E0-A5032457FED1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2476,6 +2512,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F5A0-4901-A3E0-A5032457FED1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -2598,6 +2639,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F5A0-4901-A3E0-A5032457FED1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -2720,6 +2766,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-F5A0-4901-A3E0-A5032457FED1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -2842,6 +2893,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-F5A0-4901-A3E0-A5032457FED1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -2964,6 +3020,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-F5A0-4901-A3E0-A5032457FED1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -3086,6 +3147,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-F5A0-4901-A3E0-A5032457FED1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -3208,6 +3274,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-F5A0-4901-A3E0-A5032457FED1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3326,7 +3397,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3394,7 +3464,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
@@ -3459,7 +3529,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3636,6 +3705,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C1D-42C3-A859-0B65DECAE849}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3738,6 +3812,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2C1D-42C3-A859-0B65DECAE849}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3840,6 +3919,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2C1D-42C3-A859-0B65DECAE849}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3942,6 +4026,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2C1D-42C3-A859-0B65DECAE849}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -4044,6 +4133,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2C1D-42C3-A859-0B65DECAE849}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -4146,6 +4240,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2C1D-42C3-A859-0B65DECAE849}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -4250,6 +4349,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2C1D-42C3-A859-0B65DECAE849}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -4354,6 +4458,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-2C1D-42C3-A859-0B65DECAE849}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -4458,6 +4567,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-2C1D-42C3-A859-0B65DECAE849}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -4562,6 +4676,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-2C1D-42C3-A859-0B65DECAE849}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -4666,6 +4785,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-2C1D-42C3-A859-0B65DECAE849}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -4770,6 +4894,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-2C1D-42C3-A859-0B65DECAE849}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4888,7 +5017,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4956,7 +5084,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
@@ -5025,7 +5153,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5202,6 +5329,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD4F-40E7-B5FD-A39AF04E328A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5304,6 +5436,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AD4F-40E7-B5FD-A39AF04E328A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5406,6 +5543,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AD4F-40E7-B5FD-A39AF04E328A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5508,6 +5650,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AD4F-40E7-B5FD-A39AF04E328A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -5610,6 +5757,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AD4F-40E7-B5FD-A39AF04E328A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -5712,6 +5864,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AD4F-40E7-B5FD-A39AF04E328A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -5816,6 +5973,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-AD4F-40E7-B5FD-A39AF04E328A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -5920,6 +6082,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-AD4F-40E7-B5FD-A39AF04E328A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -6024,6 +6191,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-AD4F-40E7-B5FD-A39AF04E328A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -6128,6 +6300,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-AD4F-40E7-B5FD-A39AF04E328A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -6232,6 +6409,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-AD4F-40E7-B5FD-A39AF04E328A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -6336,6 +6518,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-AD4F-40E7-B5FD-A39AF04E328A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6454,7 +6641,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6522,7 +6708,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
@@ -6602,7 +6788,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6791,6 +6976,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CBEB-4094-B208-483C316205F7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6905,6 +7095,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CBEB-4094-B208-483C316205F7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -7019,6 +7214,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CBEB-4094-B208-483C316205F7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -7133,6 +7333,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CBEB-4094-B208-483C316205F7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -7247,6 +7452,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CBEB-4094-B208-483C316205F7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -7361,6 +7571,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CBEB-4094-B208-483C316205F7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -7477,6 +7692,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-CBEB-4094-B208-483C316205F7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -7593,6 +7813,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-CBEB-4094-B208-483C316205F7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -7709,6 +7934,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-CBEB-4094-B208-483C316205F7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -7825,6 +8055,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-CBEB-4094-B208-483C316205F7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -7941,6 +8176,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-CBEB-4094-B208-483C316205F7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -8057,6 +8297,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-CBEB-4094-B208-483C316205F7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8175,7 +8420,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8243,7 +8487,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
@@ -8490,6 +8734,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9AE2-4BA1-9E33-68B7966F0320}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -8601,6 +8850,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9AE2-4BA1-9E33-68B7966F0320}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -8712,6 +8966,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9AE2-4BA1-9E33-68B7966F0320}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -8823,6 +9082,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9AE2-4BA1-9E33-68B7966F0320}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -8916,6 +9180,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9AE2-4BA1-9E33-68B7966F0320}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9034,7 +9303,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9102,7 +9370,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
@@ -9171,7 +9439,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9336,6 +9603,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F33D-41BA-9677-3ED905603D14}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -9435,6 +9707,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F33D-41BA-9677-3ED905603D14}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -9534,6 +9811,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F33D-41BA-9677-3ED905603D14}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -9633,6 +9915,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F33D-41BA-9677-3ED905603D14}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -9720,6 +10007,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F33D-41BA-9677-3ED905603D14}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9838,7 +10130,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9906,7 +10197,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
@@ -10186,6 +10477,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B7EB-4565-887A-D92CCFACF4E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -10300,6 +10596,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B7EB-4565-887A-D92CCFACF4E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -10414,6 +10715,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B7EB-4565-887A-D92CCFACF4E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -10528,6 +10834,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B7EB-4565-887A-D92CCFACF4E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -10642,6 +10953,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B7EB-4565-887A-D92CCFACF4E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -14647,7 +14963,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graf 1"/>
+        <xdr:cNvPr id="2" name="Graf 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -14682,7 +15004,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graf 2"/>
+        <xdr:cNvPr id="3" name="Graf 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -14717,7 +15045,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graf 1"/>
+        <xdr:cNvPr id="2" name="Graf 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -14752,7 +15086,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graf 1"/>
+        <xdr:cNvPr id="2" name="Graf 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -14787,7 +15127,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graf 1"/>
+        <xdr:cNvPr id="2" name="Graf 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -14822,7 +15168,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graf 1"/>
+        <xdr:cNvPr id="2" name="Graf 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -14857,7 +15209,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Graf 3"/>
+        <xdr:cNvPr id="4" name="Graf 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15142,48 +15500,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE63"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="5.5" style="45" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="6.375" style="4" customWidth="1"/>
-    <col min="4" max="13" width="6.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.3984375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="6.3984375" style="4" customWidth="1"/>
+    <col min="4" max="13" width="6.3984375" style="2" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.8984375" style="2" customWidth="1"/>
     <col min="16" max="16" width="5.5" style="2" customWidth="1"/>
-    <col min="17" max="28" width="6.375" style="4" customWidth="1"/>
+    <col min="17" max="28" width="6.3984375" style="4" customWidth="1"/>
     <col min="29" max="29" width="8.5" style="4" customWidth="1"/>
     <col min="30" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:26" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="214"/>
-      <c r="B2" s="216" t="s">
+    <row r="1" spans="1:26" ht="14.4" thickBot="1"/>
+    <row r="2" spans="1:26" ht="15" thickTop="1" thickBot="1">
+      <c r="A2" s="215"/>
+      <c r="B2" s="212" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="216" t="s">
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
-      <c r="M2" s="217"/>
-      <c r="N2" s="217"/>
-      <c r="O2" s="218"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
+      <c r="O2" s="214"/>
       <c r="P2" s="11"/>
       <c r="R2" s="148" t="s">
         <v>16</v>
@@ -15211,8 +15569,8 @@
       </c>
       <c r="Z2" s="40"/>
     </row>
-    <row r="3" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="215"/>
+    <row r="3" spans="1:26" ht="14.4" thickBot="1">
+      <c r="A3" s="216"/>
       <c r="B3" s="12">
         <v>2010</v>
       </c>
@@ -15281,7 +15639,7 @@
         <v>32619</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="15" thickTop="1" thickBot="1">
       <c r="A4" s="46" t="s">
         <v>1</v>
       </c>
@@ -15351,7 +15709,7 @@
         <v>30688</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="14.4" thickBot="1">
       <c r="A5" s="46" t="s">
         <v>2</v>
       </c>
@@ -15421,7 +15779,7 @@
         <v>28804</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="10.5" customHeight="1" thickBot="1">
       <c r="A6" s="47" t="s">
         <v>3</v>
       </c>
@@ -15491,7 +15849,7 @@
         <v>27843</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="18" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="15" hidden="1" thickTop="1" thickBot="1">
       <c r="A7" s="46" t="s">
         <v>4</v>
       </c>
@@ -15561,7 +15919,7 @@
         <v>28827</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="18" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="15" hidden="1" thickTop="1" thickBot="1">
       <c r="A8" s="46" t="s">
         <v>5</v>
       </c>
@@ -15631,7 +15989,7 @@
         <v>27035</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="18" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="15" hidden="1" thickTop="1" thickBot="1">
       <c r="A9" s="47" t="s">
         <v>6</v>
       </c>
@@ -15701,7 +16059,7 @@
         <v>24968</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="15" thickTop="1" thickBot="1">
       <c r="A10" s="46" t="s">
         <v>7</v>
       </c>
@@ -15771,7 +16129,7 @@
         <v>27818</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="14.4" thickBot="1">
       <c r="A11" s="46" t="s">
         <v>8</v>
       </c>
@@ -15841,7 +16199,7 @@
         <v>26554</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="14.4" thickBot="1">
       <c r="A12" s="47" t="s">
         <v>9</v>
       </c>
@@ -15913,7 +16271,7 @@
         <v>31132</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="15" thickTop="1" thickBot="1">
       <c r="A13" s="46" t="s">
         <v>10</v>
       </c>
@@ -15985,7 +16343,7 @@
         <v>32399</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="14.4" thickBot="1">
       <c r="A14" s="46" t="s">
         <v>11</v>
       </c>
@@ -16057,7 +16415,7 @@
         <v>22746</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="14.4" thickBot="1">
       <c r="A15" s="47" t="s">
         <v>12</v>
       </c>
@@ -16125,11 +16483,11 @@
       <c r="X15" s="38">
         <v>316522</v>
       </c>
-      <c r="Y15" s="235">
+      <c r="Y15" s="211">
         <v>341433</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="15" thickTop="1" thickBot="1">
       <c r="A16" s="48" t="s">
         <v>0</v>
       </c>
@@ -16172,49 +16530,49 @@
       <c r="N16" s="38">
         <v>63132</v>
       </c>
-      <c r="O16" s="235">
+      <c r="O16" s="211">
         <v>60088</v>
       </c>
       <c r="P16" s="39"/>
     </row>
-    <row r="17" spans="1:30" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" ht="14.4" thickTop="1">
       <c r="O17" s="4"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A19" s="211" t="s">
+    <row r="19" spans="1:30">
+      <c r="A19" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="212"/>
-      <c r="C19" s="212"/>
-      <c r="D19" s="212"/>
-      <c r="E19" s="212"/>
-      <c r="F19" s="212"/>
-      <c r="G19" s="212"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="212"/>
-      <c r="J19" s="212"/>
-      <c r="K19" s="212"/>
-      <c r="L19" s="212"/>
-      <c r="M19" s="212"/>
-      <c r="N19" s="213"/>
-      <c r="P19" s="211" t="s">
+      <c r="B19" s="218"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="218"/>
+      <c r="E19" s="218"/>
+      <c r="F19" s="218"/>
+      <c r="G19" s="218"/>
+      <c r="H19" s="218"/>
+      <c r="I19" s="218"/>
+      <c r="J19" s="218"/>
+      <c r="K19" s="218"/>
+      <c r="L19" s="218"/>
+      <c r="M19" s="218"/>
+      <c r="N19" s="219"/>
+      <c r="P19" s="217" t="s">
         <v>16</v>
       </c>
-      <c r="Q19" s="212"/>
-      <c r="R19" s="212"/>
-      <c r="S19" s="212"/>
-      <c r="T19" s="212"/>
-      <c r="U19" s="212"/>
-      <c r="V19" s="212"/>
-      <c r="W19" s="212"/>
-      <c r="X19" s="212"/>
-      <c r="Y19" s="212"/>
-      <c r="Z19" s="212"/>
-      <c r="AA19" s="212"/>
-      <c r="AB19" s="212"/>
-      <c r="AC19" s="213"/>
+      <c r="Q19" s="218"/>
+      <c r="R19" s="218"/>
+      <c r="S19" s="218"/>
+      <c r="T19" s="218"/>
+      <c r="U19" s="218"/>
+      <c r="V19" s="218"/>
+      <c r="W19" s="218"/>
+      <c r="X19" s="218"/>
+      <c r="Y19" s="218"/>
+      <c r="Z19" s="218"/>
+      <c r="AA19" s="218"/>
+      <c r="AB19" s="218"/>
+      <c r="AC19" s="219"/>
     </row>
-    <row r="20" spans="1:30" s="45" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" s="45" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="43" t="s">
         <v>1</v>
@@ -16296,7 +16654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30">
       <c r="A21" s="73">
         <v>2010</v>
       </c>
@@ -16407,7 +16765,7 @@
         <v>184748</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30">
       <c r="A22" s="73">
         <v>2011</v>
       </c>
@@ -16518,7 +16876,7 @@
         <v>227964</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30">
       <c r="A23" s="73">
         <v>2012</v>
       </c>
@@ -16629,7 +16987,7 @@
         <v>250565</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30">
       <c r="A24" s="73">
         <v>2013</v>
       </c>
@@ -16740,7 +17098,7 @@
         <v>276835</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30">
       <c r="A25" s="73">
         <v>2014</v>
       </c>
@@ -16851,7 +17209,7 @@
       </c>
       <c r="AD25" s="49"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30">
       <c r="A26" s="73">
         <v>2015</v>
       </c>
@@ -16962,7 +17320,7 @@
         <v>316522</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30">
       <c r="A27" s="73">
         <v>2016</v>
       </c>
@@ -17073,7 +17431,7 @@
         <v>341433</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30">
       <c r="A28" s="75">
         <v>2017</v>
       </c>
@@ -17154,7 +17512,7 @@
         <v>58795</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" s="61" customFormat="1">
       <c r="A29" s="59"/>
       <c r="B29" s="67"/>
       <c r="C29" s="68"/>
@@ -17173,23 +17531,23 @@
       <c r="AB29" s="68"/>
       <c r="AC29" s="68"/>
     </row>
-    <row r="30" spans="1:30" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="211" t="s">
+    <row r="30" spans="1:30" s="61" customFormat="1">
+      <c r="A30" s="217" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="212"/>
-      <c r="C30" s="212"/>
-      <c r="D30" s="212"/>
-      <c r="E30" s="212"/>
-      <c r="F30" s="212"/>
-      <c r="G30" s="212"/>
-      <c r="H30" s="212"/>
-      <c r="I30" s="212"/>
-      <c r="J30" s="212"/>
-      <c r="K30" s="212"/>
-      <c r="L30" s="212"/>
-      <c r="M30" s="212"/>
-      <c r="N30" s="213"/>
+      <c r="B30" s="218"/>
+      <c r="C30" s="218"/>
+      <c r="D30" s="218"/>
+      <c r="E30" s="218"/>
+      <c r="F30" s="218"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="218"/>
+      <c r="I30" s="218"/>
+      <c r="J30" s="218"/>
+      <c r="K30" s="218"/>
+      <c r="L30" s="218"/>
+      <c r="M30" s="218"/>
+      <c r="N30" s="219"/>
       <c r="Q30" s="62"/>
       <c r="R30" s="62"/>
       <c r="S30" s="62"/>
@@ -17204,7 +17562,7 @@
       <c r="AB30" s="62"/>
       <c r="AC30" s="62"/>
     </row>
-    <row r="31" spans="1:30" s="59" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" s="59" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="71"/>
       <c r="B31" s="53" t="s">
         <v>1</v>
@@ -17259,7 +17617,7 @@
       <c r="AB31" s="65"/>
       <c r="AC31" s="65"/>
     </row>
-    <row r="32" spans="1:30" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" s="61" customFormat="1">
       <c r="A32" s="73">
         <v>2010</v>
       </c>
@@ -17329,7 +17687,7 @@
       <c r="AB32" s="62"/>
       <c r="AC32" s="62"/>
     </row>
-    <row r="33" spans="1:31" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" s="61" customFormat="1">
       <c r="A33" s="73">
         <v>2011</v>
       </c>
@@ -17399,7 +17757,7 @@
       <c r="AB33" s="62"/>
       <c r="AC33" s="62"/>
     </row>
-    <row r="34" spans="1:31" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" s="61" customFormat="1">
       <c r="A34" s="73">
         <v>2012</v>
       </c>
@@ -17469,7 +17827,7 @@
       <c r="AB34" s="62"/>
       <c r="AC34" s="62"/>
     </row>
-    <row r="35" spans="1:31" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" s="61" customFormat="1">
       <c r="A35" s="73">
         <v>2013</v>
       </c>
@@ -17539,7 +17897,7 @@
       <c r="AB35" s="62"/>
       <c r="AC35" s="62"/>
     </row>
-    <row r="36" spans="1:31" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" s="61" customFormat="1">
       <c r="A36" s="73">
         <v>2014</v>
       </c>
@@ -17607,7 +17965,7 @@
       <c r="AB36" s="62"/>
       <c r="AC36" s="62"/>
     </row>
-    <row r="37" spans="1:31" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" s="61" customFormat="1">
       <c r="A37" s="73">
         <v>2015</v>
       </c>
@@ -17678,7 +18036,7 @@
       <c r="AC37" s="62"/>
       <c r="AE37" s="70"/>
     </row>
-    <row r="38" spans="1:31" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" s="61" customFormat="1">
       <c r="A38" s="73">
         <v>2016</v>
       </c>
@@ -17748,7 +18106,7 @@
       <c r="AB38" s="62"/>
       <c r="AC38" s="62"/>
     </row>
-    <row r="39" spans="1:31" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" s="61" customFormat="1">
       <c r="A39" s="75">
         <v>2017</v>
       </c>
@@ -17786,7 +18144,7 @@
       <c r="AB39" s="62"/>
       <c r="AC39" s="62"/>
     </row>
-    <row r="40" spans="1:31" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" s="61" customFormat="1">
       <c r="A40" s="59"/>
       <c r="B40" s="67"/>
       <c r="C40" s="68"/>
@@ -17815,7 +18173,7 @@
       <c r="AB40" s="62"/>
       <c r="AC40" s="62"/>
     </row>
-    <row r="41" spans="1:31" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" s="61" customFormat="1">
       <c r="A41" s="59"/>
       <c r="B41" s="60"/>
       <c r="C41" s="62"/>
@@ -17834,7 +18192,7 @@
       <c r="AB41" s="62"/>
       <c r="AC41" s="62"/>
     </row>
-    <row r="42" spans="1:31" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" s="61" customFormat="1">
       <c r="A42" s="59"/>
       <c r="B42" s="60"/>
       <c r="C42" s="62"/>
@@ -17855,7 +18213,7 @@
       <c r="AB42" s="62"/>
       <c r="AC42" s="62"/>
     </row>
-    <row r="43" spans="1:31" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" s="61" customFormat="1">
       <c r="A43" s="59"/>
       <c r="B43" s="60"/>
       <c r="C43" s="62"/>
@@ -17874,7 +18232,7 @@
       <c r="AB43" s="62"/>
       <c r="AC43" s="62"/>
     </row>
-    <row r="44" spans="1:31" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" s="61" customFormat="1">
       <c r="A44" s="59"/>
       <c r="B44" s="60"/>
       <c r="C44" s="62"/>
@@ -17893,7 +18251,7 @@
       <c r="AB44" s="62"/>
       <c r="AC44" s="62"/>
     </row>
-    <row r="45" spans="1:31" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" s="61" customFormat="1">
       <c r="A45" s="59"/>
       <c r="B45" s="60"/>
       <c r="C45" s="62"/>
@@ -17912,7 +18270,7 @@
       <c r="AB45" s="62"/>
       <c r="AC45" s="62"/>
     </row>
-    <row r="46" spans="1:31" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" s="61" customFormat="1">
       <c r="A46" s="59"/>
       <c r="B46" s="60"/>
       <c r="C46" s="62"/>
@@ -17931,7 +18289,7 @@
       <c r="AB46" s="62"/>
       <c r="AC46" s="62"/>
     </row>
-    <row r="47" spans="1:31" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" s="61" customFormat="1">
       <c r="A47" s="59"/>
       <c r="B47" s="60"/>
       <c r="C47" s="62"/>
@@ -17955,7 +18313,7 @@
       <c r="AB47" s="62"/>
       <c r="AC47" s="62"/>
     </row>
-    <row r="48" spans="1:31" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" s="61" customFormat="1">
       <c r="A48" s="59"/>
       <c r="B48" s="60"/>
       <c r="C48" s="62"/>
@@ -17979,7 +18337,7 @@
       <c r="AB48" s="62"/>
       <c r="AC48" s="62"/>
     </row>
-    <row r="49" spans="1:29" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" s="61" customFormat="1">
       <c r="A49" s="59"/>
       <c r="B49" s="60"/>
       <c r="C49" s="62"/>
@@ -18003,7 +18361,7 @@
       <c r="AB49" s="62"/>
       <c r="AC49" s="62"/>
     </row>
-    <row r="50" spans="1:29" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29" s="61" customFormat="1">
       <c r="A50" s="59"/>
       <c r="B50" s="60"/>
       <c r="C50" s="62"/>
@@ -18027,7 +18385,7 @@
       <c r="AB50" s="62"/>
       <c r="AC50" s="62"/>
     </row>
-    <row r="51" spans="1:29" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" s="61" customFormat="1">
       <c r="A51" s="59"/>
       <c r="B51" s="60"/>
       <c r="C51" s="62"/>
@@ -18051,7 +18409,7 @@
       <c r="AB51" s="62"/>
       <c r="AC51" s="62"/>
     </row>
-    <row r="52" spans="1:29" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29" s="61" customFormat="1">
       <c r="A52" s="59"/>
       <c r="B52" s="60"/>
       <c r="C52" s="62"/>
@@ -18075,7 +18433,7 @@
       <c r="AB52" s="62"/>
       <c r="AC52" s="62"/>
     </row>
-    <row r="53" spans="1:29" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29" s="61" customFormat="1">
       <c r="A53" s="59"/>
       <c r="B53" s="60"/>
       <c r="C53" s="62"/>
@@ -18099,7 +18457,7 @@
       <c r="AB53" s="62"/>
       <c r="AC53" s="62"/>
     </row>
-    <row r="54" spans="1:29" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29" s="61" customFormat="1">
       <c r="A54" s="59"/>
       <c r="B54" s="60"/>
       <c r="C54" s="62"/>
@@ -18123,7 +18481,7 @@
       <c r="AB54" s="62"/>
       <c r="AC54" s="62"/>
     </row>
-    <row r="55" spans="1:29" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29" s="61" customFormat="1">
       <c r="A55" s="59"/>
       <c r="B55" s="60"/>
       <c r="C55" s="62"/>
@@ -18147,56 +18505,56 @@
       <c r="AB55" s="62"/>
       <c r="AC55" s="62"/>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:29">
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56"/>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29">
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29">
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29">
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59"/>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29">
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60"/>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29">
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61"/>
       <c r="L61"/>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:29">
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
       <c r="K62"/>
       <c r="L62"/>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29">
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
@@ -18222,35 +18580,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC32"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="13" width="6.375" customWidth="1"/>
+    <col min="2" max="13" width="6.3984375" customWidth="1"/>
     <col min="16" max="16" width="5.5" customWidth="1"/>
-    <col min="17" max="28" width="6.375" customWidth="1"/>
+    <col min="17" max="28" width="6.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="219"/>
-      <c r="B1" s="221" t="s">
+    <row r="1" spans="1:23" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A1" s="220"/>
+      <c r="B1" s="222" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="224" t="s">
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="225" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="225"/>
-      <c r="H1" s="225"/>
-      <c r="I1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="227"/>
       <c r="K1" s="110" t="s">
         <v>16</v>
       </c>
@@ -18267,8 +18625,8 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="220"/>
+    <row r="2" spans="1:23" ht="15" thickBot="1">
+      <c r="A2" s="221"/>
       <c r="B2" s="80">
         <v>2013</v>
       </c>
@@ -18307,7 +18665,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="87" t="s">
         <v>1</v>
       </c>
@@ -18345,7 +18703,7 @@
         <v>4179</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="15" thickBot="1">
       <c r="A4" s="87" t="s">
         <v>2</v>
       </c>
@@ -18383,7 +18741,7 @@
         <v>4292</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="15" thickBot="1">
       <c r="A5" s="92" t="s">
         <v>3</v>
       </c>
@@ -18421,7 +18779,7 @@
         <v>4438</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="87" t="s">
         <v>4</v>
       </c>
@@ -18461,7 +18819,7 @@
         <v>3867</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" ht="15" thickBot="1">
       <c r="A7" s="87" t="s">
         <v>5</v>
       </c>
@@ -18505,7 +18863,7 @@
         <v>3360</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="15" thickBot="1">
       <c r="A8" s="92" t="s">
         <v>6</v>
       </c>
@@ -18549,7 +18907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="87" t="s">
         <v>7</v>
       </c>
@@ -18593,7 +18951,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="15" thickBot="1">
       <c r="A10" s="87" t="s">
         <v>8</v>
       </c>
@@ -18637,7 +18995,7 @@
         <v>3058</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="15" thickBot="1">
       <c r="A11" s="92" t="s">
         <v>9</v>
       </c>
@@ -18681,7 +19039,7 @@
         <v>4245</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="87" t="s">
         <v>10</v>
       </c>
@@ -18725,7 +19083,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="15" thickBot="1">
       <c r="A13" s="87" t="s">
         <v>11</v>
       </c>
@@ -18769,7 +19127,7 @@
         <v>2997</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="15" thickBot="1">
       <c r="A14" s="92" t="s">
         <v>12</v>
       </c>
@@ -18813,7 +19171,7 @@
         <v>38671</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="15" thickTop="1" thickBot="1">
       <c r="A15" s="105" t="s">
         <v>0</v>
       </c>
@@ -18843,7 +19201,7 @@
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="14.4" thickTop="1">
       <c r="P16" s="64"/>
       <c r="Q16" s="64"/>
       <c r="R16" s="64"/>
@@ -18853,7 +19211,7 @@
       <c r="V16" s="64"/>
       <c r="W16" s="64"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29">
       <c r="P17" s="64"/>
       <c r="Q17" s="64"/>
       <c r="R17" s="64"/>
@@ -18863,41 +19221,41 @@
       <c r="V17" s="64"/>
       <c r="W17" s="64"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="211" t="s">
+    <row r="18" spans="1:29">
+      <c r="A18" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="212"/>
-      <c r="C18" s="212"/>
-      <c r="D18" s="212"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="212"/>
-      <c r="H18" s="212"/>
-      <c r="I18" s="212"/>
-      <c r="J18" s="212"/>
-      <c r="K18" s="212"/>
-      <c r="L18" s="212"/>
-      <c r="M18" s="212"/>
-      <c r="N18" s="213"/>
-      <c r="P18" s="211" t="s">
+      <c r="B18" s="218"/>
+      <c r="C18" s="218"/>
+      <c r="D18" s="218"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="218"/>
+      <c r="I18" s="218"/>
+      <c r="J18" s="218"/>
+      <c r="K18" s="218"/>
+      <c r="L18" s="218"/>
+      <c r="M18" s="218"/>
+      <c r="N18" s="219"/>
+      <c r="P18" s="217" t="s">
         <v>16</v>
       </c>
-      <c r="Q18" s="212"/>
-      <c r="R18" s="212"/>
-      <c r="S18" s="212"/>
-      <c r="T18" s="212"/>
-      <c r="U18" s="212"/>
-      <c r="V18" s="212"/>
-      <c r="W18" s="212"/>
-      <c r="X18" s="212"/>
-      <c r="Y18" s="212"/>
-      <c r="Z18" s="212"/>
-      <c r="AA18" s="212"/>
-      <c r="AB18" s="212"/>
-      <c r="AC18" s="213"/>
+      <c r="Q18" s="218"/>
+      <c r="R18" s="218"/>
+      <c r="S18" s="218"/>
+      <c r="T18" s="218"/>
+      <c r="U18" s="218"/>
+      <c r="V18" s="218"/>
+      <c r="W18" s="218"/>
+      <c r="X18" s="218"/>
+      <c r="Y18" s="218"/>
+      <c r="Z18" s="218"/>
+      <c r="AA18" s="218"/>
+      <c r="AB18" s="218"/>
+      <c r="AC18" s="219"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29">
       <c r="A19" s="71"/>
       <c r="B19" s="42" t="s">
         <v>1</v>
@@ -18979,7 +19337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29">
       <c r="A20" s="73">
         <v>2013</v>
       </c>
@@ -19079,7 +19437,7 @@
         <v>16607</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29">
       <c r="A21" s="73">
         <v>2014</v>
       </c>
@@ -19191,7 +19549,7 @@
         <v>34928</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29">
       <c r="A22" s="73">
         <v>2015</v>
       </c>
@@ -19303,7 +19661,7 @@
         <v>36449</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29">
       <c r="A23" s="73">
         <v>2016</v>
       </c>
@@ -19415,7 +19773,7 @@
         <v>38671</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29">
       <c r="A24" s="75">
         <v>2017</v>
       </c>
@@ -19495,26 +19853,26 @@
         <v>7876</v>
       </c>
     </row>
-    <row r="25" spans="1:29" s="64" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A26" s="211" t="s">
+    <row r="25" spans="1:29" s="64" customFormat="1"/>
+    <row r="26" spans="1:29">
+      <c r="A26" s="217" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="212"/>
-      <c r="C26" s="212"/>
-      <c r="D26" s="212"/>
-      <c r="E26" s="212"/>
-      <c r="F26" s="212"/>
-      <c r="G26" s="212"/>
-      <c r="H26" s="212"/>
-      <c r="I26" s="212"/>
-      <c r="J26" s="212"/>
-      <c r="K26" s="212"/>
-      <c r="L26" s="212"/>
-      <c r="M26" s="212"/>
-      <c r="N26" s="213"/>
+      <c r="B26" s="218"/>
+      <c r="C26" s="218"/>
+      <c r="D26" s="218"/>
+      <c r="E26" s="218"/>
+      <c r="F26" s="218"/>
+      <c r="G26" s="218"/>
+      <c r="H26" s="218"/>
+      <c r="I26" s="218"/>
+      <c r="J26" s="218"/>
+      <c r="K26" s="218"/>
+      <c r="L26" s="218"/>
+      <c r="M26" s="218"/>
+      <c r="N26" s="219"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29">
       <c r="A27" s="71"/>
       <c r="B27" s="42" t="s">
         <v>1</v>
@@ -19556,7 +19914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29">
       <c r="A28" s="73">
         <v>2013</v>
       </c>
@@ -19601,7 +19959,7 @@
         <v>10440</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29">
       <c r="A29" s="73">
         <v>2014</v>
       </c>
@@ -19658,7 +20016,7 @@
         <v>21625</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29">
       <c r="A30" s="73">
         <v>2015</v>
       </c>
@@ -19715,7 +20073,7 @@
         <v>21397</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29">
       <c r="A31" s="73">
         <v>2016</v>
       </c>
@@ -19772,7 +20130,7 @@
         <v>22025</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29">
       <c r="A32" s="75">
         <v>2017</v>
       </c>
@@ -19815,35 +20173,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC31"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="13" width="6.375" customWidth="1"/>
+    <col min="2" max="13" width="6.3984375" customWidth="1"/>
     <col min="16" max="16" width="5.5" customWidth="1"/>
-    <col min="17" max="28" width="6.375" customWidth="1"/>
+    <col min="17" max="28" width="6.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="219"/>
-      <c r="B1" s="221" t="s">
+    <row r="1" spans="1:15" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A1" s="220"/>
+      <c r="B1" s="222" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="224" t="s">
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="225" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="225"/>
-      <c r="H1" s="225"/>
-      <c r="I1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="227"/>
       <c r="K1" s="110" t="s">
         <v>16</v>
       </c>
@@ -19860,8 +20218,8 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="220"/>
+    <row r="2" spans="1:15" ht="15" thickBot="1">
+      <c r="A2" s="221"/>
       <c r="B2" s="80">
         <v>2013</v>
       </c>
@@ -19902,7 +20260,7 @@
         <v>9957</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="87" t="s">
         <v>1</v>
       </c>
@@ -19942,7 +20300,7 @@
         <v>10033</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15" thickBot="1">
       <c r="A4" s="87" t="s">
         <v>2</v>
       </c>
@@ -19982,7 +20340,7 @@
         <v>9637</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15" thickBot="1">
       <c r="A5" s="92" t="s">
         <v>3</v>
       </c>
@@ -20022,7 +20380,7 @@
         <v>9575</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="87" t="s">
         <v>4</v>
       </c>
@@ -20062,7 +20420,7 @@
         <v>9451</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15" thickBot="1">
       <c r="A7" s="87" t="s">
         <v>5</v>
       </c>
@@ -20106,7 +20464,7 @@
         <v>7554</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15" thickBot="1">
       <c r="A8" s="92" t="s">
         <v>6</v>
       </c>
@@ -20150,7 +20508,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="87" t="s">
         <v>7</v>
       </c>
@@ -20194,7 +20552,7 @@
         <v>3457</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15" thickBot="1">
       <c r="A10" s="87" t="s">
         <v>8</v>
       </c>
@@ -20238,7 +20596,7 @@
         <v>8787</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15" thickBot="1">
       <c r="A11" s="92" t="s">
         <v>9</v>
       </c>
@@ -20282,7 +20640,7 @@
         <v>9511</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="87" t="s">
         <v>10</v>
       </c>
@@ -20326,7 +20684,7 @@
         <v>10945</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15" thickBot="1">
       <c r="A13" s="87" t="s">
         <v>11</v>
       </c>
@@ -20370,7 +20728,7 @@
         <v>8501</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15" thickBot="1">
       <c r="A14" s="92" t="s">
         <v>12</v>
       </c>
@@ -20414,7 +20772,7 @@
         <v>99024</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15" thickTop="1" thickBot="1">
       <c r="A15" s="105" t="s">
         <v>0</v>
       </c>
@@ -20443,42 +20801,42 @@
         <v>30257</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A17" s="211" t="s">
+    <row r="16" spans="1:15" ht="14.4" thickTop="1"/>
+    <row r="17" spans="1:29">
+      <c r="A17" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="212"/>
-      <c r="C17" s="212"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="212"/>
-      <c r="J17" s="212"/>
-      <c r="K17" s="212"/>
-      <c r="L17" s="212"/>
-      <c r="M17" s="212"/>
-      <c r="N17" s="213"/>
-      <c r="P17" s="211" t="s">
+      <c r="B17" s="218"/>
+      <c r="C17" s="218"/>
+      <c r="D17" s="218"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="218"/>
+      <c r="G17" s="218"/>
+      <c r="H17" s="218"/>
+      <c r="I17" s="218"/>
+      <c r="J17" s="218"/>
+      <c r="K17" s="218"/>
+      <c r="L17" s="218"/>
+      <c r="M17" s="218"/>
+      <c r="N17" s="219"/>
+      <c r="P17" s="217" t="s">
         <v>16</v>
       </c>
-      <c r="Q17" s="212"/>
-      <c r="R17" s="212"/>
-      <c r="S17" s="212"/>
-      <c r="T17" s="212"/>
-      <c r="U17" s="212"/>
-      <c r="V17" s="212"/>
-      <c r="W17" s="212"/>
-      <c r="X17" s="212"/>
-      <c r="Y17" s="212"/>
-      <c r="Z17" s="212"/>
-      <c r="AA17" s="212"/>
-      <c r="AB17" s="212"/>
-      <c r="AC17" s="213"/>
+      <c r="Q17" s="218"/>
+      <c r="R17" s="218"/>
+      <c r="S17" s="218"/>
+      <c r="T17" s="218"/>
+      <c r="U17" s="218"/>
+      <c r="V17" s="218"/>
+      <c r="W17" s="218"/>
+      <c r="X17" s="218"/>
+      <c r="Y17" s="218"/>
+      <c r="Z17" s="218"/>
+      <c r="AA17" s="218"/>
+      <c r="AB17" s="218"/>
+      <c r="AC17" s="219"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29">
       <c r="A18" s="71"/>
       <c r="B18" s="42" t="s">
         <v>1</v>
@@ -20560,7 +20918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29">
       <c r="A19" s="73">
         <v>2013</v>
       </c>
@@ -20672,7 +21030,7 @@
         <v>25149</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29">
       <c r="A20" s="73">
         <v>2014</v>
       </c>
@@ -20784,7 +21142,7 @@
         <v>68440</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29">
       <c r="A21" s="73">
         <v>2015</v>
       </c>
@@ -20896,7 +21254,7 @@
         <v>79667</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29">
       <c r="A22" s="73">
         <v>2016</v>
       </c>
@@ -21008,7 +21366,7 @@
         <v>99024</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29">
       <c r="A23" s="75">
         <v>2017</v>
       </c>
@@ -21088,25 +21446,25 @@
         <v>22284</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A25" s="211" t="s">
+    <row r="25" spans="1:29">
+      <c r="A25" s="217" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="212"/>
-      <c r="C25" s="212"/>
-      <c r="D25" s="212"/>
-      <c r="E25" s="212"/>
-      <c r="F25" s="212"/>
-      <c r="G25" s="212"/>
-      <c r="H25" s="212"/>
-      <c r="I25" s="212"/>
-      <c r="J25" s="212"/>
-      <c r="K25" s="212"/>
-      <c r="L25" s="212"/>
-      <c r="M25" s="212"/>
-      <c r="N25" s="213"/>
+      <c r="B25" s="218"/>
+      <c r="C25" s="218"/>
+      <c r="D25" s="218"/>
+      <c r="E25" s="218"/>
+      <c r="F25" s="218"/>
+      <c r="G25" s="218"/>
+      <c r="H25" s="218"/>
+      <c r="I25" s="218"/>
+      <c r="J25" s="218"/>
+      <c r="K25" s="218"/>
+      <c r="L25" s="218"/>
+      <c r="M25" s="218"/>
+      <c r="N25" s="219"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29">
       <c r="A26" s="71"/>
       <c r="B26" s="42" t="s">
         <v>1</v>
@@ -21148,7 +21506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29">
       <c r="A27" s="73">
         <v>2013</v>
       </c>
@@ -21205,7 +21563,7 @@
         <v>11195</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29">
       <c r="A28" s="73">
         <v>2014</v>
       </c>
@@ -21262,7 +21620,7 @@
         <v>25783</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29">
       <c r="A29" s="73">
         <v>2015</v>
       </c>
@@ -21319,7 +21677,7 @@
         <v>26406</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29">
       <c r="A30" s="73">
         <v>2016</v>
       </c>
@@ -21376,7 +21734,7 @@
         <v>30257</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29">
       <c r="A31" s="75">
         <v>2017</v>
       </c>
@@ -21419,41 +21777,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC36"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="R17" sqref="R16:X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="6.375" customWidth="1"/>
-    <col min="3" max="3" width="6.375" style="1" customWidth="1"/>
-    <col min="4" max="13" width="6.375" customWidth="1"/>
+    <col min="2" max="2" width="6.3984375" customWidth="1"/>
+    <col min="3" max="3" width="6.3984375" style="1" customWidth="1"/>
+    <col min="4" max="13" width="6.3984375" customWidth="1"/>
     <col min="16" max="16" width="5.5" customWidth="1"/>
-    <col min="17" max="28" width="6.375" customWidth="1"/>
+    <col min="17" max="28" width="6.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="219"/>
-      <c r="B1" s="221" t="s">
+    <row r="1" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A1" s="220"/>
+      <c r="B1" s="222" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="221" t="s">
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="222" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="222"/>
-      <c r="J1" s="222"/>
-      <c r="K1" s="222"/>
-      <c r="L1" s="222"/>
-      <c r="M1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="223"/>
+      <c r="K1" s="223"/>
+      <c r="L1" s="223"/>
+      <c r="M1" s="224"/>
       <c r="O1" s="110" t="s">
         <v>16</v>
       </c>
@@ -21476,8 +21834,8 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="220"/>
+    <row r="2" spans="1:21" ht="15" thickBot="1">
+      <c r="A2" s="221"/>
       <c r="B2" s="132">
         <v>2011</v>
       </c>
@@ -21536,7 +21894,7 @@
         <v>14513</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="138" t="s">
         <v>1</v>
       </c>
@@ -21598,7 +21956,7 @@
         <v>15961</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="15" thickBot="1">
       <c r="A4" s="138" t="s">
         <v>2</v>
       </c>
@@ -21660,7 +22018,7 @@
         <v>17182</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="15" thickBot="1">
       <c r="A5" s="141" t="s">
         <v>3</v>
       </c>
@@ -21722,7 +22080,7 @@
         <v>16192</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="138" t="s">
         <v>4</v>
       </c>
@@ -21784,7 +22142,7 @@
         <v>11622</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="15" thickBot="1">
       <c r="A7" s="138" t="s">
         <v>5</v>
       </c>
@@ -21846,7 +22204,7 @@
         <v>12310</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="15" thickBot="1">
       <c r="A8" s="141" t="s">
         <v>6</v>
       </c>
@@ -21908,7 +22266,7 @@
         <v>5487</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="138" t="s">
         <v>7</v>
       </c>
@@ -21970,7 +22328,7 @@
         <v>8641</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="15" thickBot="1">
       <c r="A10" s="138" t="s">
         <v>8</v>
       </c>
@@ -22032,7 +22390,7 @@
         <v>13114</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="15" thickBot="1">
       <c r="A11" s="141" t="s">
         <v>9</v>
       </c>
@@ -22094,7 +22452,7 @@
         <v>14932</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="138" t="s">
         <v>10</v>
       </c>
@@ -22156,7 +22514,7 @@
         <v>16638</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="15" thickBot="1">
       <c r="A13" s="138" t="s">
         <v>11</v>
       </c>
@@ -22218,7 +22576,7 @@
         <v>11286</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="15" thickBot="1">
       <c r="A14" s="141" t="s">
         <v>12</v>
       </c>
@@ -22280,7 +22638,7 @@
         <v>157878</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="15" thickTop="1" thickBot="1">
       <c r="A15" s="105" t="s">
         <v>0</v>
       </c>
@@ -22325,42 +22683,42 @@
         <v>161662</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="211" t="s">
+    <row r="16" spans="1:21" ht="14.4" thickTop="1"/>
+    <row r="18" spans="1:29">
+      <c r="A18" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="212"/>
-      <c r="C18" s="212"/>
-      <c r="D18" s="212"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="212"/>
-      <c r="H18" s="212"/>
-      <c r="I18" s="212"/>
-      <c r="J18" s="212"/>
-      <c r="K18" s="212"/>
-      <c r="L18" s="212"/>
-      <c r="M18" s="212"/>
-      <c r="N18" s="213"/>
-      <c r="P18" s="211" t="s">
+      <c r="B18" s="218"/>
+      <c r="C18" s="218"/>
+      <c r="D18" s="218"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="218"/>
+      <c r="I18" s="218"/>
+      <c r="J18" s="218"/>
+      <c r="K18" s="218"/>
+      <c r="L18" s="218"/>
+      <c r="M18" s="218"/>
+      <c r="N18" s="219"/>
+      <c r="P18" s="217" t="s">
         <v>16</v>
       </c>
-      <c r="Q18" s="212"/>
-      <c r="R18" s="212"/>
-      <c r="S18" s="212"/>
-      <c r="T18" s="212"/>
-      <c r="U18" s="212"/>
-      <c r="V18" s="212"/>
-      <c r="W18" s="212"/>
-      <c r="X18" s="212"/>
-      <c r="Y18" s="212"/>
-      <c r="Z18" s="212"/>
-      <c r="AA18" s="212"/>
-      <c r="AB18" s="212"/>
-      <c r="AC18" s="213"/>
+      <c r="Q18" s="218"/>
+      <c r="R18" s="218"/>
+      <c r="S18" s="218"/>
+      <c r="T18" s="218"/>
+      <c r="U18" s="218"/>
+      <c r="V18" s="218"/>
+      <c r="W18" s="218"/>
+      <c r="X18" s="218"/>
+      <c r="Y18" s="218"/>
+      <c r="Z18" s="218"/>
+      <c r="AA18" s="218"/>
+      <c r="AB18" s="218"/>
+      <c r="AC18" s="219"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29">
       <c r="A19" s="71"/>
       <c r="B19" s="43" t="s">
         <v>1</v>
@@ -22442,7 +22800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29">
       <c r="A20" s="73">
         <v>2011</v>
       </c>
@@ -22554,7 +22912,7 @@
         <v>238346</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29">
       <c r="A21" s="73">
         <v>2012</v>
       </c>
@@ -22666,7 +23024,7 @@
         <v>202683</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29">
       <c r="A22" s="73">
         <v>2013</v>
       </c>
@@ -22778,7 +23136,7 @@
         <v>161662</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29">
       <c r="A23" s="73">
         <v>2014</v>
       </c>
@@ -22890,7 +23248,7 @@
         <v>163654</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29">
       <c r="A24" s="73">
         <v>2015</v>
       </c>
@@ -23002,7 +23360,7 @@
         <v>143674</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29">
       <c r="A25" s="73">
         <v>2016</v>
       </c>
@@ -23114,7 +23472,7 @@
         <v>157878</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29">
       <c r="A26" s="75">
         <v>2017</v>
       </c>
@@ -23194,25 +23552,25 @@
         <v>30196</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A28" s="211" t="s">
+    <row r="28" spans="1:29">
+      <c r="A28" s="217" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="212"/>
-      <c r="C28" s="212"/>
-      <c r="D28" s="212"/>
-      <c r="E28" s="212"/>
-      <c r="F28" s="212"/>
-      <c r="G28" s="212"/>
-      <c r="H28" s="212"/>
-      <c r="I28" s="212"/>
-      <c r="J28" s="212"/>
-      <c r="K28" s="212"/>
-      <c r="L28" s="212"/>
-      <c r="M28" s="212"/>
-      <c r="N28" s="213"/>
+      <c r="B28" s="218"/>
+      <c r="C28" s="218"/>
+      <c r="D28" s="218"/>
+      <c r="E28" s="218"/>
+      <c r="F28" s="218"/>
+      <c r="G28" s="218"/>
+      <c r="H28" s="218"/>
+      <c r="I28" s="218"/>
+      <c r="J28" s="218"/>
+      <c r="K28" s="218"/>
+      <c r="L28" s="218"/>
+      <c r="M28" s="218"/>
+      <c r="N28" s="219"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29">
       <c r="A29" s="71"/>
       <c r="B29" s="43" t="s">
         <v>1</v>
@@ -23254,7 +23612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29">
       <c r="A30" s="73">
         <v>2011</v>
       </c>
@@ -23311,7 +23669,7 @@
         <v>148932</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29">
       <c r="A31" s="73">
         <v>2012</v>
       </c>
@@ -23369,7 +23727,7 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29">
       <c r="A32" s="73">
         <v>2013</v>
       </c>
@@ -23426,7 +23784,7 @@
         <v>63585</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14">
       <c r="A33" s="73">
         <v>2014</v>
       </c>
@@ -23483,7 +23841,7 @@
         <v>59356</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14">
       <c r="A34" s="73">
         <v>2015</v>
       </c>
@@ -23540,7 +23898,7 @@
         <v>52137</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14">
       <c r="A35" s="73">
         <v>2016</v>
       </c>
@@ -23597,7 +23955,7 @@
         <v>55608</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14">
       <c r="A36" s="75">
         <v>2017</v>
       </c>
@@ -23641,19 +23999,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="16384" width="9" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="44.4" thickTop="1" thickBot="1">
       <c r="A1" s="164" t="s">
         <v>16</v>
       </c>
@@ -23676,7 +24034,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.6" thickTop="1" thickBot="1">
       <c r="A2" s="112" t="s">
         <v>1</v>
       </c>
@@ -23687,7 +24045,7 @@
       <c r="F2" s="88"/>
       <c r="G2" s="165"/>
     </row>
-    <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" thickBot="1">
       <c r="A3" s="112" t="s">
         <v>2</v>
       </c>
@@ -23698,7 +24056,7 @@
       <c r="F3" s="88"/>
       <c r="G3" s="165"/>
     </row>
-    <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15" thickBot="1">
       <c r="A4" s="116" t="s">
         <v>3</v>
       </c>
@@ -23709,7 +24067,7 @@
       <c r="F4" s="93"/>
       <c r="G4" s="166"/>
     </row>
-    <row r="5" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" s="112" t="s">
         <v>4</v>
       </c>
@@ -23720,7 +24078,7 @@
       <c r="F5" s="88"/>
       <c r="G5" s="165"/>
     </row>
-    <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" thickBot="1">
       <c r="A6" s="112" t="s">
         <v>5</v>
       </c>
@@ -23733,7 +24091,7 @@
       </c>
       <c r="G6" s="165"/>
     </row>
-    <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15" thickBot="1">
       <c r="A7" s="116" t="s">
         <v>6</v>
       </c>
@@ -23756,7 +24114,7 @@
         <v>9957</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="112" t="s">
         <v>7</v>
       </c>
@@ -23779,7 +24137,7 @@
         <v>23753</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15" thickBot="1">
       <c r="A9" s="112" t="s">
         <v>8</v>
       </c>
@@ -23802,7 +24160,7 @@
         <v>14295</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15" thickBot="1">
       <c r="A10" s="116" t="s">
         <v>9</v>
       </c>
@@ -23813,7 +24171,7 @@
       <c r="F10" s="93"/>
       <c r="G10" s="166"/>
     </row>
-    <row r="11" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="112" t="s">
         <v>10</v>
       </c>
@@ -23824,7 +24182,7 @@
       <c r="F11" s="88"/>
       <c r="G11" s="165"/>
     </row>
-    <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15" thickBot="1">
       <c r="A12" s="112" t="s">
         <v>11</v>
       </c>
@@ -23835,7 +24193,7 @@
       <c r="F12" s="88"/>
       <c r="G12" s="165"/>
     </row>
-    <row r="13" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15" thickBot="1">
       <c r="A13" s="116" t="s">
         <v>12</v>
       </c>
@@ -23846,7 +24204,7 @@
       <c r="F13" s="93"/>
       <c r="G13" s="166"/>
     </row>
-    <row r="14" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="122" t="s">
         <v>0</v>
       </c>
@@ -23869,24 +24227,24 @@
         <v>48005</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="211" t="s">
+    <row r="15" spans="1:7" ht="14.4" thickTop="1"/>
+    <row r="19" spans="1:14">
+      <c r="A19" s="217" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="212"/>
-      <c r="C19" s="212"/>
-      <c r="D19" s="212"/>
-      <c r="E19" s="212"/>
-      <c r="F19" s="212"/>
-      <c r="G19" s="212"/>
+      <c r="B19" s="218"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="218"/>
+      <c r="E19" s="218"/>
+      <c r="F19" s="218"/>
+      <c r="G19" s="218"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
       <c r="N19"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14">
       <c r="A20" s="71"/>
       <c r="B20" s="43" t="s">
         <v>5</v>
@@ -23910,7 +24268,7 @@
       <c r="M20"/>
       <c r="N20"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14">
       <c r="A21" s="73">
         <v>2011</v>
       </c>
@@ -23938,7 +24296,7 @@
       <c r="M21"/>
       <c r="N21"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14">
       <c r="A22" s="73">
         <v>2012</v>
       </c>
@@ -23966,7 +24324,7 @@
       <c r="M22"/>
       <c r="N22"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="A23" s="73">
         <v>2013</v>
       </c>
@@ -23994,7 +24352,7 @@
       <c r="M23"/>
       <c r="N23"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14">
       <c r="A24" s="73">
         <v>2014</v>
       </c>
@@ -24022,7 +24380,7 @@
       <c r="M24"/>
       <c r="N24"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="A25" s="73">
         <v>2015</v>
       </c>
@@ -24052,7 +24410,7 @@
       <c r="M25"/>
       <c r="N25"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26" s="73">
         <v>2016</v>
       </c>
@@ -24080,7 +24438,7 @@
       <c r="M26"/>
       <c r="N26"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27" s="75">
         <v>2017</v>
       </c>
@@ -24096,7 +24454,7 @@
       <c r="M27"/>
       <c r="N27"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28"/>
@@ -24113,19 +24471,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18" thickBot="1">
       <c r="A1" s="170"/>
     </row>
-    <row r="2" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15.6" thickTop="1" thickBot="1">
       <c r="A2" s="110" t="s">
         <v>16</v>
       </c>
@@ -24142,7 +24500,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15.6" thickTop="1" thickBot="1">
       <c r="A3" s="112" t="s">
         <v>1</v>
       </c>
@@ -24151,7 +24509,7 @@
       <c r="D3" s="120"/>
       <c r="E3" s="171"/>
     </row>
-    <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15" thickBot="1">
       <c r="A4" s="112" t="s">
         <v>2</v>
       </c>
@@ -24160,7 +24518,7 @@
       <c r="D4" s="120"/>
       <c r="E4" s="121"/>
     </row>
-    <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15" thickBot="1">
       <c r="A5" s="116" t="s">
         <v>3</v>
       </c>
@@ -24169,7 +24527,7 @@
       <c r="D5" s="127"/>
       <c r="E5" s="172"/>
     </row>
-    <row r="6" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15.6" thickTop="1" thickBot="1">
       <c r="A6" s="112" t="s">
         <v>4</v>
       </c>
@@ -24178,7 +24536,7 @@
       <c r="D6" s="120"/>
       <c r="E6" s="121"/>
     </row>
-    <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="15" thickBot="1">
       <c r="A7" s="112" t="s">
         <v>5</v>
       </c>
@@ -24189,7 +24547,7 @@
       </c>
       <c r="E7" s="121"/>
     </row>
-    <row r="8" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="15" thickBot="1">
       <c r="A8" s="116" t="s">
         <v>6</v>
       </c>
@@ -24206,7 +24564,7 @@
         <v>3920</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="15.6" thickTop="1" thickBot="1">
       <c r="A9" s="112" t="s">
         <v>7</v>
       </c>
@@ -24223,7 +24581,7 @@
         <v>11743</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="15" thickBot="1">
       <c r="A10" s="112" t="s">
         <v>8</v>
       </c>
@@ -24240,7 +24598,7 @@
         <v>7450</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="15" thickBot="1">
       <c r="A11" s="116" t="s">
         <v>9</v>
       </c>
@@ -24249,7 +24607,7 @@
       <c r="D11" s="127"/>
       <c r="E11" s="172"/>
     </row>
-    <row r="12" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="15.6" thickTop="1" thickBot="1">
       <c r="A12" s="112" t="s">
         <v>10</v>
       </c>
@@ -24258,7 +24616,7 @@
       <c r="D12" s="120"/>
       <c r="E12" s="121"/>
     </row>
-    <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="15" thickBot="1">
       <c r="A13" s="112" t="s">
         <v>11</v>
       </c>
@@ -24267,7 +24625,7 @@
       <c r="D13" s="120"/>
       <c r="E13" s="121"/>
     </row>
-    <row r="14" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="15" thickBot="1">
       <c r="A14" s="116" t="s">
         <v>12</v>
       </c>
@@ -24276,7 +24634,7 @@
       <c r="D14" s="127"/>
       <c r="E14" s="172"/>
     </row>
-    <row r="15" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="15.6" thickTop="1" thickBot="1">
       <c r="A15" s="122" t="s">
         <v>0</v>
       </c>
@@ -24293,19 +24651,19 @@
         <v>23113</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="211" t="s">
+    <row r="16" spans="1:5" ht="14.4" thickTop="1"/>
+    <row r="18" spans="1:7">
+      <c r="A18" s="217" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="212"/>
-      <c r="C18" s="212"/>
-      <c r="D18" s="212"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="213"/>
+      <c r="B18" s="218"/>
+      <c r="C18" s="218"/>
+      <c r="D18" s="218"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="219"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="71"/>
       <c r="B19" s="43" t="s">
         <v>5</v>
@@ -24324,7 +24682,7 @@
       </c>
       <c r="G19" s="72"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="73">
         <v>2013</v>
       </c>
@@ -24347,7 +24705,7 @@
         <v>31739</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="73">
         <v>2014</v>
       </c>
@@ -24370,7 +24728,7 @@
         <v>15279</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="73">
         <v>2015</v>
       </c>
@@ -24395,7 +24753,7 @@
         <v>42869</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="73">
         <v>2016</v>
       </c>
@@ -24418,7 +24776,7 @@
         <v>23113</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="75">
         <v>2017</v>
       </c>
@@ -24439,19 +24797,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="3" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15.6" thickTop="1" thickBot="1">
       <c r="A1" s="174" t="s">
         <v>16</v>
       </c>
@@ -24476,24 +24834,24 @@
       <c r="I1" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="227" t="s">
+      <c r="J1" s="228" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="228"/>
-      <c r="L1" s="227" t="s">
+      <c r="K1" s="229"/>
+      <c r="L1" s="228" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="228"/>
-      <c r="N1" s="229" t="s">
+      <c r="M1" s="229"/>
+      <c r="N1" s="230" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="230"/>
-      <c r="P1" s="229" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="230"/>
+      <c r="O1" s="231"/>
+      <c r="P1" s="230" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="231"/>
     </row>
-    <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" thickBot="1">
       <c r="A2" s="112" t="s">
         <v>1</v>
       </c>
@@ -24541,7 +24899,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="15" thickBot="1">
       <c r="A3" s="112" t="s">
         <v>2</v>
       </c>
@@ -24591,7 +24949,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="15" thickBot="1">
       <c r="A4" s="116" t="s">
         <v>3</v>
       </c>
@@ -24641,7 +24999,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="15.6" thickTop="1" thickBot="1">
       <c r="A5" s="112" t="s">
         <v>4</v>
       </c>
@@ -24691,7 +25049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="15" thickBot="1">
       <c r="A6" s="112" t="s">
         <v>5</v>
       </c>
@@ -24741,7 +25099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="15" thickBot="1">
       <c r="A7" s="116" t="s">
         <v>6</v>
       </c>
@@ -24791,7 +25149,7 @@
         <v>12980</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="15.6" thickTop="1" thickBot="1">
       <c r="A8" s="112" t="s">
         <v>7</v>
       </c>
@@ -24841,7 +25199,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="15" thickBot="1">
       <c r="A9" s="112" t="s">
         <v>8</v>
       </c>
@@ -24864,7 +25222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="15" thickBot="1">
       <c r="A10" s="116" t="s">
         <v>9</v>
       </c>
@@ -24887,7 +25245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="15.6" thickTop="1" thickBot="1">
       <c r="A11" s="112" t="s">
         <v>10</v>
       </c>
@@ -24910,7 +25268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="15" thickBot="1">
       <c r="A12" s="112" t="s">
         <v>11</v>
       </c>
@@ -24933,7 +25291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="15" thickBot="1">
       <c r="A13" s="116" t="s">
         <v>12</v>
       </c>
@@ -24956,7 +25314,7 @@
         <v>12340</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="15.6" thickTop="1" thickBot="1">
       <c r="A14" s="122" t="s">
         <v>0</v>
       </c>
@@ -24979,28 +25337,28 @@
         <v>26231</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="211" t="s">
+    <row r="15" spans="1:17" ht="14.4" thickTop="1"/>
+    <row r="18" spans="1:16">
+      <c r="A18" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="212"/>
-      <c r="C18" s="212"/>
-      <c r="D18" s="212"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="212"/>
-      <c r="J18" s="211" t="s">
+      <c r="B18" s="218"/>
+      <c r="C18" s="218"/>
+      <c r="D18" s="218"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="218"/>
+      <c r="J18" s="217" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="212"/>
-      <c r="L18" s="212"/>
-      <c r="M18" s="212"/>
-      <c r="N18" s="212"/>
-      <c r="O18" s="212"/>
-      <c r="P18" s="212"/>
+      <c r="K18" s="218"/>
+      <c r="L18" s="218"/>
+      <c r="M18" s="218"/>
+      <c r="N18" s="218"/>
+      <c r="O18" s="218"/>
+      <c r="P18" s="218"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16">
       <c r="A19" s="71"/>
       <c r="B19" s="43" t="s">
         <v>1</v>
@@ -25036,7 +25394,7 @@
       </c>
       <c r="P19" s="72"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16">
       <c r="A20" s="73">
         <v>2011</v>
       </c>
@@ -25087,7 +25445,7 @@
         <v>15813</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16">
       <c r="A21" s="73">
         <v>2012</v>
       </c>
@@ -25140,7 +25498,7 @@
         <v>20481</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16">
       <c r="A22" s="73">
         <v>2013</v>
       </c>
@@ -25194,7 +25552,7 @@
         <v>26064</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16">
       <c r="A23" s="73">
         <v>2014</v>
       </c>
@@ -25250,7 +25608,7 @@
         <v>34055</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16">
       <c r="A24" s="73">
         <v>2015</v>
       </c>
@@ -25306,7 +25664,7 @@
         <v>35802</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16">
       <c r="A25" s="73">
         <v>2016</v>
       </c>
@@ -25362,7 +25720,7 @@
         <v>28111</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16">
       <c r="A26" s="75">
         <v>2017</v>
       </c>
@@ -25407,18 +25765,18 @@
         <v>15069</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="211" t="s">
+    <row r="28" spans="1:16">
+      <c r="A28" s="217" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="212"/>
-      <c r="C28" s="212"/>
-      <c r="D28" s="212"/>
-      <c r="E28" s="212"/>
-      <c r="F28" s="212"/>
-      <c r="G28" s="212"/>
+      <c r="B28" s="218"/>
+      <c r="C28" s="218"/>
+      <c r="D28" s="218"/>
+      <c r="E28" s="218"/>
+      <c r="F28" s="218"/>
+      <c r="G28" s="218"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16">
       <c r="A29" s="71"/>
       <c r="B29" s="43" t="s">
         <v>1</v>
@@ -25437,7 +25795,7 @@
       </c>
       <c r="G29" s="72"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16">
       <c r="A30" s="73">
         <v>2011</v>
       </c>
@@ -25461,7 +25819,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16">
       <c r="A31" s="73">
         <v>2012</v>
       </c>
@@ -25485,7 +25843,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16">
       <c r="A32" s="73">
         <v>2013</v>
       </c>
@@ -25505,7 +25863,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="73">
         <v>2014</v>
       </c>
@@ -25529,7 +25887,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="73">
         <v>2015</v>
       </c>
@@ -25553,7 +25911,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="73">
         <v>2016</v>
       </c>
@@ -25577,7 +25935,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="75">
         <v>2017</v>
       </c>
@@ -25615,129 +25973,129 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A4:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="9" style="205"/>
     <col min="2" max="2" width="42.5" style="205" customWidth="1"/>
     <col min="3" max="16384" width="9" style="205"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="211" t="s">
+    <row r="4" spans="1:6" ht="13.8">
+      <c r="A4" s="217" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="212"/>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="212"/>
-      <c r="F4" s="213"/>
+      <c r="B4" s="218"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="218"/>
+      <c r="F4" s="219"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="231" t="s">
+    <row r="5" spans="1:6" ht="13.8">
+      <c r="A5" s="232" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="232"/>
-      <c r="C5" s="232"/>
-      <c r="D5" s="232"/>
-      <c r="E5" s="232"/>
+      <c r="B5" s="233"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
       <c r="F5" s="206">
         <f>Aquapark!R28</f>
         <v>30624</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="231" t="s">
+    <row r="6" spans="1:6" ht="13.8">
+      <c r="A6" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="232"/>
-      <c r="C6" s="232"/>
-      <c r="D6" s="232"/>
-      <c r="E6" s="232"/>
+      <c r="B6" s="233"/>
+      <c r="C6" s="233"/>
+      <c r="D6" s="233"/>
+      <c r="E6" s="233"/>
       <c r="F6" s="206">
         <f>Ponávka!R24</f>
         <v>4008</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="231" t="s">
+    <row r="7" spans="1:6" ht="13.8">
+      <c r="A7" s="232" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="232"/>
-      <c r="C7" s="232"/>
-      <c r="D7" s="232"/>
-      <c r="E7" s="232"/>
+      <c r="B7" s="233"/>
+      <c r="C7" s="233"/>
+      <c r="D7" s="233"/>
+      <c r="E7" s="233"/>
       <c r="F7" s="206">
         <f>Rašínova!R23</f>
         <v>10875</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="231" t="s">
+    <row r="8" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A8" s="232" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="232"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="232"/>
-      <c r="E8" s="232"/>
+      <c r="B8" s="233"/>
+      <c r="C8" s="233"/>
+      <c r="D8" s="233"/>
+      <c r="E8" s="233"/>
       <c r="F8" s="206">
         <f>'Bazén Lužánky'!$R$26</f>
         <v>16099</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="231" t="s">
+    <row r="9" spans="1:6" ht="13.8">
+      <c r="A9" s="232" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="232"/>
-      <c r="C9" s="232"/>
-      <c r="D9" s="232"/>
-      <c r="E9" s="232"/>
+      <c r="B9" s="233"/>
+      <c r="C9" s="233"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="233"/>
       <c r="F9" s="206">
         <f>'Koupaliště Riviéra'!G27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="231" t="s">
+    <row r="10" spans="1:6" ht="13.8">
+      <c r="A10" s="232" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="232"/>
-      <c r="C10" s="232"/>
-      <c r="D10" s="232"/>
-      <c r="E10" s="232"/>
+      <c r="B10" s="233"/>
+      <c r="C10" s="233"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="233"/>
       <c r="F10" s="206">
         <f>'Koupaliště Zábrdovice'!G24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="231" t="s">
+    <row r="11" spans="1:6" ht="13.8">
+      <c r="A11" s="232" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="232"/>
-      <c r="C11" s="232"/>
-      <c r="D11" s="232"/>
-      <c r="E11" s="232"/>
+      <c r="B11" s="233"/>
+      <c r="C11" s="233"/>
+      <c r="D11" s="233"/>
+      <c r="E11" s="233"/>
       <c r="F11" s="206">
         <f>Kluziště!L26</f>
         <v>6072</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="233" t="s">
+    <row r="12" spans="1:6" ht="13.8">
+      <c r="A12" s="234" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="234"/>
-      <c r="C12" s="234"/>
-      <c r="D12" s="234"/>
-      <c r="E12" s="234"/>
+      <c r="B12" s="235"/>
+      <c r="C12" s="235"/>
+      <c r="D12" s="235"/>
+      <c r="E12" s="235"/>
       <c r="F12" s="207">
         <f>SUM(F5:F11)</f>
         <v>67678</v>
